--- a/Running projects/Generation Store - Dolmen Mall Lahore/Discounted MEP BOQs - Generation DML.xlsx
+++ b/Running projects/Generation Store - Dolmen Mall Lahore/Discounted MEP BOQs - Generation DML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Generation Store - Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF40980-A2D0-4A57-B859-5C641195FBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05AEC56-C9C2-442E-B7AB-346E4C092BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>No.</t>
   </si>
@@ -417,12 +417,16 @@
   <si>
     <t>MS Sch-40 seamless pipes including all specials M.I &amp; D.I threaded &amp; machenical joint threaded  &amp; grooved fittings UL listed FM approved, flexible pipe, flanges, coupling, masking plates, bends, tees, clamps, supports and hangers, sleeves, masking plates chiseling, cutting holes, making good where required, painting and protection treatment etc. Complete in all respects.</t>
   </si>
+  <si>
+    <t>Rec Mob Advance 25%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -861,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -988,6 +992,156 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,179 +1157,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1542,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:D20"/>
+  <dimension ref="A6:H20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1554,21 +1561,25 @@
     <col min="2" max="2" width="53.33203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="9"/>
     <col min="4" max="4" width="19.83203125" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="7"/>
+    <col min="5" max="7" width="9.33203125" style="7"/>
+    <col min="8" max="8" width="21.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="7"/>
+    <col min="10" max="10" width="20.83203125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1578,13 +1589,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
@@ -1598,14 +1609,21 @@
         <f>'HVAC-BOQ'!I21</f>
         <v>1840368</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+      <c r="F10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="105">
+        <f>D15*25%</f>
+        <v>1421846.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
@@ -1620,23 +1638,23 @@
         <v>3847016.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="20"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A15" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24">
         <f>SUM(D9:D14)</f>
@@ -1750,77 +1768,77 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="37" customFormat="1" ht="17.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="97"/>
+      <c r="I6" s="98" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="37" customFormat="1" ht="18" thickBot="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="224.25">
-      <c r="A8" s="58">
+      <c r="A8" s="45">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="48">
         <v>135</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="49">
         <v>5520</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="49">
         <f t="shared" ref="F8:F20" si="0">E8*D8</f>
         <v>745200</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="49">
         <v>920</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="49">
         <f t="shared" ref="H8:H20" si="1">G8*D8</f>
         <v>124200</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="49">
         <f t="shared" ref="I8:I20" si="2">H8+F8</f>
         <v>869400</v>
       </c>
@@ -1837,33 +1855,33 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="120.75">
-      <c r="A9" s="63">
+      <c r="A9" s="50">
         <v>2</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="53">
         <v>130</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="54">
         <v>2024</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="49">
         <f t="shared" si="0"/>
         <v>263120</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="54">
         <v>552</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="49">
         <f t="shared" si="1"/>
         <v>71760</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="49">
         <f t="shared" si="2"/>
         <v>334880</v>
       </c>
@@ -1880,33 +1898,33 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="138">
-      <c r="A10" s="63">
+      <c r="A10" s="50">
         <v>3</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="53">
         <v>1</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="54">
         <v>50600</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>50600</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="54">
         <v>4600</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="49">
         <f t="shared" si="1"/>
         <v>4600</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="49">
         <f t="shared" si="2"/>
         <v>55200</v>
       </c>
@@ -1923,33 +1941,33 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25">
-      <c r="A11" s="63">
+      <c r="A11" s="50">
         <v>3.1</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="53">
         <v>1</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="54">
         <v>50600</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="49">
         <f t="shared" si="0"/>
         <v>50600</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="54">
         <v>4600</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="49">
         <f t="shared" si="1"/>
         <v>4600</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="49">
         <f t="shared" si="2"/>
         <v>55200</v>
       </c>
@@ -1966,33 +1984,33 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="34.5">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="53">
         <v>3</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="54">
         <v>4416</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>13248</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="54">
         <v>920</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="49">
         <f t="shared" si="1"/>
         <v>2760</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="49">
         <f t="shared" si="2"/>
         <v>16008</v>
       </c>
@@ -2009,33 +2027,33 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="53">
         <v>1</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="54">
         <v>7360</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>7360</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="54">
         <v>920</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="49">
         <f t="shared" si="1"/>
         <v>920</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="49">
         <f t="shared" si="2"/>
         <v>8280</v>
       </c>
@@ -2052,33 +2070,33 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="34.5">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="53">
         <v>20</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="54">
         <v>10120</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="49">
         <f t="shared" si="0"/>
         <v>202400</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="54">
         <v>92</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="49">
         <f t="shared" si="1"/>
         <v>1840</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="49">
         <f t="shared" si="2"/>
         <v>204240</v>
       </c>
@@ -2095,33 +2113,33 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="86.25">
-      <c r="A15" s="63">
+      <c r="A15" s="50">
         <v>4</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="53">
         <v>1</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="54">
         <v>50600</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>50600</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="54">
         <v>4600</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="49">
         <f t="shared" si="1"/>
         <v>4600</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="49">
         <f t="shared" si="2"/>
         <v>55200</v>
       </c>
@@ -2138,33 +2156,33 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="69">
-      <c r="A16" s="63">
+      <c r="A16" s="50">
         <v>5</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="53">
         <v>15</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="54">
         <v>4600</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="49">
         <f t="shared" si="0"/>
         <v>69000</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="54">
         <v>920</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="49">
         <f t="shared" si="1"/>
         <v>13800</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="49">
         <f t="shared" si="2"/>
         <v>82800</v>
       </c>
@@ -2181,33 +2199,33 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="69">
-      <c r="A17" s="63">
+      <c r="A17" s="50">
         <v>6</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="53">
         <v>1</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="54">
         <v>44160</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="49">
         <f t="shared" si="0"/>
         <v>44160</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="54">
         <v>4600</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="49">
         <f t="shared" si="1"/>
         <v>4600</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="49">
         <f t="shared" si="2"/>
         <v>48760</v>
       </c>
@@ -2224,33 +2242,33 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="120.75">
-      <c r="A18" s="63">
+      <c r="A18" s="50">
         <v>7</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="53">
         <v>1</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="54">
         <v>18400</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="49">
         <f t="shared" si="0"/>
         <v>18400</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="54">
         <v>18400</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="49">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="49">
         <f t="shared" si="2"/>
         <v>36800</v>
       </c>
@@ -2267,33 +2285,33 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="138">
-      <c r="A19" s="63">
+      <c r="A19" s="50">
         <v>8</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="53">
         <v>1</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="54">
         <v>9200</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="49">
         <f t="shared" si="0"/>
         <v>9200</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="54">
         <v>27600</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="49">
         <f t="shared" si="1"/>
         <v>27600</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="49">
         <f t="shared" si="2"/>
         <v>36800</v>
       </c>
@@ -2310,33 +2328,33 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="138.75" thickBot="1">
-      <c r="A20" s="69">
+      <c r="A20" s="56">
         <v>9</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="59">
         <v>1</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="60">
         <v>18400</v>
       </c>
-      <c r="F20" s="62">
+      <c r="F20" s="49">
         <f t="shared" si="0"/>
         <v>18400</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="60">
         <v>18400</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="49">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="49">
         <f t="shared" si="2"/>
         <v>36800</v>
       </c>
@@ -2353,39 +2371,39 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79">
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66">
         <f>SUM(F8:F20)</f>
         <v>1542288</v>
       </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="79">
+      <c r="G21" s="67"/>
+      <c r="H21" s="66">
         <f>SUM(H8:H20)</f>
         <v>298080</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="66">
         <f>SUM(I8:I20)</f>
         <v>1840368</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2411,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2462,31 +2480,31 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L6" s="37"/>
@@ -2494,65 +2512,65 @@
       <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="115.5">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="165">
-      <c r="A8" s="90">
+      <c r="A8" s="77">
         <v>1</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
       <c r="N8" s="41"/>
     </row>
     <row r="9" spans="1:14" ht="16.5">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="75">
         <v>125</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="78">
         <v>2622</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="78">
         <f>E9*D9</f>
         <v>327750</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="78">
         <v>920</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H9" s="78">
         <f>G9*D9</f>
         <v>115000</v>
       </c>
-      <c r="I9" s="91">
+      <c r="I9" s="78">
         <f>H9+F9</f>
         <v>442750</v>
       </c>
@@ -2569,33 +2587,33 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="82">
         <v>95</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="78">
         <v>3275.2</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="78">
         <f t="shared" ref="F10:F17" si="2">E10*D10</f>
         <v>311144</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="78">
         <v>1104</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="78">
         <f t="shared" ref="H10:H17" si="3">G10*D10</f>
         <v>104880</v>
       </c>
-      <c r="I10" s="91">
+      <c r="I10" s="78">
         <f t="shared" ref="I10:I17" si="4">H10+F10</f>
         <v>416024</v>
       </c>
@@ -2612,33 +2630,33 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="82">
         <v>15</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="78">
         <v>3910</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="78">
         <f t="shared" si="2"/>
         <v>58650</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="78">
         <v>1196</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="78">
         <f t="shared" si="3"/>
         <v>17940</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="78">
         <f t="shared" si="4"/>
         <v>76590</v>
       </c>
@@ -2655,33 +2673,33 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D12" s="82">
         <v>20</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="78">
         <v>5115.2</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="78">
         <f t="shared" si="2"/>
         <v>102304</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="78">
         <v>1288</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="78">
         <f t="shared" si="3"/>
         <v>25760</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I12" s="78">
         <f t="shared" si="4"/>
         <v>128064</v>
       </c>
@@ -2698,33 +2716,33 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="82">
         <v>20</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="78">
         <v>8694</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="78">
         <f t="shared" si="2"/>
         <v>173880</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="78">
         <v>1380</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="78">
         <f t="shared" si="3"/>
         <v>27600</v>
       </c>
-      <c r="I13" s="91">
+      <c r="I13" s="78">
         <f t="shared" si="4"/>
         <v>201480</v>
       </c>
@@ -2741,33 +2759,33 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D14" s="82">
         <v>90</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="78">
         <v>10304</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="78">
         <f t="shared" si="2"/>
         <v>927360</v>
       </c>
-      <c r="G14" s="91">
+      <c r="G14" s="78">
         <v>1564</v>
       </c>
-      <c r="H14" s="91">
+      <c r="H14" s="78">
         <f t="shared" si="3"/>
         <v>140760</v>
       </c>
-      <c r="I14" s="91">
+      <c r="I14" s="78">
         <f t="shared" si="4"/>
         <v>1068120</v>
       </c>
@@ -2784,33 +2802,33 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="95">
+      <c r="D15" s="82">
         <v>20</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="78">
         <v>14924.24</v>
       </c>
-      <c r="F15" s="91">
+      <c r="F15" s="78">
         <f t="shared" si="2"/>
         <v>298484.8</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="78">
         <v>1840</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="78">
         <f t="shared" si="3"/>
         <v>36800</v>
       </c>
-      <c r="I15" s="91">
+      <c r="I15" s="78">
         <f t="shared" si="4"/>
         <v>335284.8</v>
       </c>
@@ -2827,33 +2845,33 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="66">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="82">
         <v>56</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="78">
         <v>4140</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="78">
         <f t="shared" si="2"/>
         <v>231840</v>
       </c>
-      <c r="G16" s="91">
+      <c r="G16" s="78">
         <v>690</v>
       </c>
-      <c r="H16" s="91">
+      <c r="H16" s="78">
         <f t="shared" si="3"/>
         <v>38640</v>
       </c>
-      <c r="I16" s="91">
+      <c r="I16" s="78">
         <f t="shared" si="4"/>
         <v>270480</v>
       </c>
@@ -2870,33 +2888,33 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="49.5">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D17" s="82">
         <v>51</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="78">
         <v>8188</v>
       </c>
-      <c r="F17" s="91">
+      <c r="F17" s="78">
         <f t="shared" si="2"/>
         <v>417588</v>
       </c>
-      <c r="G17" s="91">
+      <c r="G17" s="78">
         <v>736</v>
       </c>
-      <c r="H17" s="91">
+      <c r="H17" s="78">
         <f t="shared" si="3"/>
         <v>37536</v>
       </c>
-      <c r="I17" s="91">
+      <c r="I17" s="78">
         <f t="shared" si="4"/>
         <v>455124</v>
       </c>
@@ -2913,33 +2931,33 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="33">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="82">
         <v>2</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="78">
         <v>116840</v>
       </c>
-      <c r="F18" s="91">
+      <c r="F18" s="78">
         <f>E18*D18</f>
         <v>233680</v>
       </c>
-      <c r="G18" s="91">
+      <c r="G18" s="78">
         <v>4600</v>
       </c>
-      <c r="H18" s="91">
+      <c r="H18" s="78">
         <f>G18*D18</f>
         <v>9200</v>
       </c>
-      <c r="I18" s="91">
+      <c r="I18" s="78">
         <f>H18+F18</f>
         <v>242880</v>
       </c>
@@ -2956,33 +2974,33 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="66">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="95">
+      <c r="D19" s="82">
         <v>1</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="78">
         <v>26680</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="78">
         <f t="shared" ref="F19:F24" si="5">E19*D19</f>
         <v>26680</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="78">
         <v>920</v>
       </c>
-      <c r="H19" s="91">
+      <c r="H19" s="78">
         <f t="shared" ref="H19:H24" si="6">G19*D19</f>
         <v>920</v>
       </c>
-      <c r="I19" s="91">
+      <c r="I19" s="78">
         <f t="shared" ref="I19:I24" si="7">H19+F19</f>
         <v>27600</v>
       </c>
@@ -2999,33 +3017,33 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="82">
         <v>1</v>
       </c>
-      <c r="E20" s="91">
+      <c r="E20" s="78">
         <v>16100</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="78">
         <f t="shared" si="5"/>
         <v>16100</v>
       </c>
-      <c r="G20" s="91">
+      <c r="G20" s="78">
         <v>920</v>
       </c>
-      <c r="H20" s="91">
+      <c r="H20" s="78">
         <f t="shared" si="6"/>
         <v>920</v>
       </c>
-      <c r="I20" s="91">
+      <c r="I20" s="78">
         <f t="shared" si="7"/>
         <v>17020</v>
       </c>
@@ -3042,33 +3060,33 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="66">
-      <c r="A21" s="92">
+      <c r="A21" s="79">
         <v>5</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="95">
+      <c r="D21" s="82">
         <v>1</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="78">
         <v>9200</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="78">
         <f t="shared" si="5"/>
         <v>9200</v>
       </c>
-      <c r="G21" s="91">
+      <c r="G21" s="78">
         <v>13800</v>
       </c>
-      <c r="H21" s="91">
+      <c r="H21" s="78">
         <f t="shared" si="6"/>
         <v>13800</v>
       </c>
-      <c r="I21" s="91">
+      <c r="I21" s="78">
         <f t="shared" si="7"/>
         <v>23000</v>
       </c>
@@ -3085,33 +3103,33 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="33">
-      <c r="A22" s="92">
+      <c r="A22" s="79">
         <v>6</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="95">
+      <c r="D22" s="82">
         <v>1</v>
       </c>
-      <c r="E22" s="91">
+      <c r="E22" s="78">
         <v>36800</v>
       </c>
-      <c r="F22" s="91">
+      <c r="F22" s="78">
         <f t="shared" si="5"/>
         <v>36800</v>
       </c>
-      <c r="G22" s="91">
+      <c r="G22" s="78">
         <v>36800</v>
       </c>
-      <c r="H22" s="91">
+      <c r="H22" s="78">
         <f t="shared" si="6"/>
         <v>36800</v>
       </c>
-      <c r="I22" s="91">
+      <c r="I22" s="78">
         <f t="shared" si="7"/>
         <v>73600</v>
       </c>
@@ -3128,33 +3146,33 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5">
-      <c r="A23" s="92">
+      <c r="A23" s="79">
         <v>7</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="95">
+      <c r="D23" s="82">
         <v>1</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="78">
         <v>13800</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="78">
         <f t="shared" si="5"/>
         <v>13800</v>
       </c>
-      <c r="G23" s="91">
+      <c r="G23" s="78">
         <v>27600</v>
       </c>
-      <c r="H23" s="91">
+      <c r="H23" s="78">
         <f t="shared" si="6"/>
         <v>27600</v>
       </c>
-      <c r="I23" s="91">
+      <c r="I23" s="78">
         <f t="shared" si="7"/>
         <v>41400</v>
       </c>
@@ -3171,31 +3189,31 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="50.25" thickBot="1">
-      <c r="A24" s="97">
+      <c r="A24" s="84">
         <v>8</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="100">
+      <c r="D24" s="87">
         <v>1</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91">
+      <c r="E24" s="78"/>
+      <c r="F24" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="91">
+      <c r="G24" s="78">
         <v>27600</v>
       </c>
-      <c r="H24" s="91">
+      <c r="H24" s="78">
         <f t="shared" si="6"/>
         <v>27600</v>
       </c>
-      <c r="I24" s="91">
+      <c r="I24" s="78">
         <f t="shared" si="7"/>
         <v>27600</v>
       </c>
@@ -3212,23 +3230,23 @@
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="102" t="s">
+      <c r="A25" s="88"/>
+      <c r="B25" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104">
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91">
         <f>SUM(F8:F24)</f>
         <v>3185260.8</v>
       </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104">
+      <c r="G25" s="91"/>
+      <c r="H25" s="91">
         <f>SUM(H8:H24)</f>
         <v>661756</v>
       </c>
-      <c r="I25" s="104">
+      <c r="I25" s="91">
         <f>SUM(I8:I24)</f>
         <v>3847016.8</v>
       </c>
@@ -3242,30 +3260,30 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
     </row>
     <row r="29" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="2">
